--- a/CASP/CASP15/target_list.xlsx
+++ b/CASP/CASP15/target_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonystark/Documents/Personal Document/NUS/projects/DMFold/benchmark/CASP15/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonystark/Documents/Personal Document/NUS/projects/DMFold/benchmark/Protein-Multimers-Benchmark/CASP/CASP15/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D967209D-3F22-7D43-B3F9-E66A3CEB4F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457174DF-4F70-894A-B6F3-39EA64BDFAEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28760" yWindow="4720" windowWidth="11640" windowHeight="16960" xr2:uid="{ACF5C0FC-2B78-1543-9A9B-D98C36ED03AD}"/>
+    <workbookView xWindow="16940" yWindow="860" windowWidth="11640" windowHeight="16960" xr2:uid="{ACF5C0FC-2B78-1543-9A9B-D98C36ED03AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,9 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>A8</t>
-  </si>
-  <si>
     <t>T1153o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +233,10 @@
   </si>
   <si>
     <t>T1174o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -289,12 +290,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -314,7 +321,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,6 +335,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -667,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6220E6-AF9B-0C45-92F9-8FA79A07134C}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -860,13 +870,13 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>577</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F16" s="4"/>
@@ -874,24 +884,24 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>560</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>567</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="4"/>
@@ -1035,13 +1045,13 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30">
+      <c r="A30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="5">
         <v>299</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F30" s="4"/>
@@ -1050,7 +1060,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>48</v>
@@ -1061,7 +1071,7 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>48</v>
@@ -1086,7 +1096,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34">
         <v>204</v>
@@ -1099,13 +1109,13 @@
       <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35">
+      <c r="A35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="5">
         <v>338</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1117,7 +1127,7 @@
         <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1149,13 +1159,13 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>688</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>3</v>
       </c>
     </row>
